--- a/doc/Process/3-软件迭代阶段/ProductBacklogs.xlsx
+++ b/doc/Process/3-软件迭代阶段/ProductBacklogs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Desktop/Tinder/doc/Process/3-软件迭代阶段/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FBA1321F-393D-D940-A90B-66427CEAFCC1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF0D6158-C313-A34C-BA6E-A11DE636E8A3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,12 @@
     <sheet name="v0.1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="88">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -81,13 +82,6 @@
   </si>
   <si>
     <t>A01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册登录</t>
-    <rPh sb="0" eb="2">
-      <t>zhu c</t>
-    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -222,13 +216,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>注册账户</t>
-    <rPh sb="0" eb="2">
-      <t>zu h c</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>登陆账户</t>
     <rPh sb="0" eb="2">
       <t>deng l</t>
@@ -423,45 +410,66 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>B1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>C1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C6</t>
+    <t>解禁账号</t>
+    <rPh sb="0" eb="4">
+      <t>jie kajie kafeng ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除部门</t>
+    <rPh sb="0" eb="4">
+      <t>shan ch</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t>B01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B02</t>
+  </si>
+  <si>
+    <t>B03</t>
+  </si>
+  <si>
+    <t>B04</t>
+  </si>
+  <si>
+    <t>B05</t>
+  </si>
+  <si>
+    <t>B06</t>
+  </si>
+  <si>
+    <t>B07</t>
+  </si>
+  <si>
+    <t>C01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -500,18 +508,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -528,7 +530,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -540,9 +542,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -885,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="11"/>
@@ -934,61 +933,61 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <f>F2*H2</f>
         <v>2</v>
       </c>
-      <c r="F2" s="5">
-        <v>2</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5">
-        <f>F3*H3</f>
-        <v>2</v>
-      </c>
-      <c r="F3" s="5">
-        <v>2</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="E3" s="1">
+        <f t="shared" ref="E3" si="0">F3*H3</f>
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -997,14 +996,14 @@
         <v>10</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4" si="0">F4*H4</f>
-        <v>2</v>
+        <f t="shared" ref="E4" si="1">F4*H4</f>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -1012,10 +1011,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>21</v>
@@ -1024,11 +1023,11 @@
         <v>10</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ref="E5" si="1">F5*H5</f>
-        <v>1</v>
+        <f t="shared" ref="E5:E30" si="2">F5*H5</f>
+        <v>2</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>8</v>
@@ -1039,19 +1038,19 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ref="E6:E29" si="2">F6*H6</f>
+        <f t="shared" ref="E6" si="3">F6*H6</f>
         <v>2</v>
       </c>
       <c r="F6" s="1">
@@ -1066,13 +1065,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
@@ -1093,13 +1092,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
@@ -1120,19 +1119,19 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E9" si="4">F9*H9</f>
         <v>2</v>
       </c>
       <c r="F9" s="1">
@@ -1147,13 +1146,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>10</v>
@@ -1166,7 +1165,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
@@ -1174,67 +1173,67 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>10</v>
@@ -1244,24 +1243,24 @@
         <v>2</v>
       </c>
       <c r="F13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>10</v>
@@ -1274,7 +1273,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
@@ -1282,23 +1281,23 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>8</v>
@@ -1309,13 +1308,13 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>10</v>
@@ -1339,13 +1338,13 @@
         <v>73</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="2"/>
@@ -1366,13 +1365,13 @@
         <v>74</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="2"/>
@@ -1382,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H18" s="1">
         <v>1</v>
@@ -1393,13 +1392,13 @@
         <v>75</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="2"/>
@@ -1420,20 +1419,20 @@
         <v>76</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>9</v>
@@ -1447,14 +1446,14 @@
         <v>77</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="E21" s="1">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -1463,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H21" s="1">
         <v>1</v>
@@ -1474,13 +1473,13 @@
         <v>78</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="2"/>
@@ -1501,20 +1500,20 @@
         <v>79</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>8</v>
@@ -1528,26 +1527,26 @@
         <v>80</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F24" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1555,17 +1554,17 @@
         <v>81</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F25" s="1">
         <v>2</v>
@@ -1574,7 +1573,7 @@
         <v>9</v>
       </c>
       <c r="H25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1582,20 +1581,20 @@
         <v>82</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="E26" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>9</v>
@@ -1609,17 +1608,17 @@
         <v>83</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
@@ -1628,7 +1627,7 @@
         <v>9</v>
       </c>
       <c r="H27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1636,20 +1635,20 @@
         <v>84</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F28" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>9</v>
@@ -1662,65 +1661,92 @@
       <c r="A29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="B29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="D29" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E29" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F29" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="2">
-        <f>COUNTIF(A2:A29,"&lt;&gt;0")</f>
-        <v>28</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="C31" s="2">
+        <f>COUNTIF(A2:A30,"&lt;&gt;0")</f>
+        <v>29</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="2">
-        <f>SUM(E2:E29)</f>
-        <v>60</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="41" spans="1:8" s="2" customFormat="1">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="E31" s="2">
+        <f>SUM(E2:E30)</f>
+        <v>62</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="42" spans="1:8" s="2" customFormat="1">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D29" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D30" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1级,2级,3级,4级,5级"</formula1>
     </dataValidation>
   </dataValidations>

--- a/doc/Process/3-软件迭代阶段/ProductBacklogs.xlsx
+++ b/doc/Process/3-软件迭代阶段/ProductBacklogs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Desktop/Tinder/doc/Process/3-软件迭代阶段/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF0D6158-C313-A34C-BA6E-A11DE636E8A3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{901C38A4-01F8-C04F-BFC1-5D1A97C5975B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,11 @@
     <sheet name="v0.1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="93">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -470,6 +469,33 @@
   <si>
     <t>登录</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C07</t>
+  </si>
+  <si>
+    <t>聊天记录</t>
+    <rPh sb="0" eb="1">
+      <t>liao tian ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件传入显示</t>
+    <rPh sb="0" eb="2">
+      <t>wen jia</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传输语音消息</t>
+    <rPh sb="0" eb="2">
+      <t>cuan s</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C08</t>
   </si>
 </sst>
 </file>
@@ -884,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="141" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="11"/>
@@ -1712,41 +1738,94 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" ref="E31" si="5">F31*H31</f>
+        <v>2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="2">
-        <f>COUNTIF(A2:A30,"&lt;&gt;0")</f>
-        <v>29</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="C33" s="2">
+        <f>COUNTIF(A2:A32,"&lt;&gt;0")</f>
+        <v>31</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="2">
-        <f>SUM(E2:E30)</f>
-        <v>62</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="42" spans="1:8" s="2" customFormat="1">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="E33" s="2">
+        <f>SUM(E2:E32)</f>
+        <v>66</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="44" spans="1:8" s="2" customFormat="1">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D30" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D32" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1级,2级,3级,4级,5级"</formula1>
     </dataValidation>
   </dataValidations>

--- a/doc/Process/3-软件迭代阶段/ProductBacklogs.xlsx
+++ b/doc/Process/3-软件迭代阶段/ProductBacklogs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Desktop/Tinder/doc/Process/3-软件迭代阶段/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{901C38A4-01F8-C04F-BFC1-5D1A97C5975B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{74A39C61-413A-2242-9AC2-EE0206F0B36B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="96">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -496,6 +496,23 @@
   </si>
   <si>
     <t>C08</t>
+  </si>
+  <si>
+    <t>登陆</t>
+    <rPh sb="0" eb="2">
+      <t>deng l</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C09</t>
+  </si>
+  <si>
+    <t>登出用户</t>
+    <rPh sb="0" eb="1">
+      <t>deng chu yong hu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -910,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="141" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="11"/>
@@ -1769,63 +1786,89 @@
         <v>92</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E32" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" s="1">
         <v>1</v>
       </c>
       <c r="G32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H32" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="2" t="s">
+      <c r="H33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="2">
-        <f>COUNTIF(A2:A32,"&lt;&gt;0")</f>
-        <v>31</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="C34" s="2">
+        <f>COUNTIF(A2:A33,"&lt;&gt;0")</f>
+        <v>32</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="2">
-        <f>SUM(E2:E32)</f>
-        <v>66</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="44" spans="1:8" s="2" customFormat="1">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
+      <c r="E34" s="2">
+        <f>SUM(E2:E33)</f>
+        <v>67</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="45" spans="1:8" s="2" customFormat="1">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D32" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D33" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1级,2级,3级,4级,5级"</formula1>
     </dataValidation>
   </dataValidations>

--- a/doc/Process/3-软件迭代阶段/ProductBacklogs.xlsx
+++ b/doc/Process/3-软件迭代阶段/ProductBacklogs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Desktop/Tinder/doc/Process/3-软件迭代阶段/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{74A39C61-413A-2242-9AC2-EE0206F0B36B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D5BD5282-48DB-8F46-B505-1C4D3F6C351D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9880" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v0.1" sheetId="1" r:id="rId1"/>
@@ -215,13 +215,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>登陆账户</t>
-    <rPh sb="0" eb="2">
-      <t>deng l</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>A13</t>
   </si>
   <si>
@@ -467,10 +460,6 @@
     <t>C06</t>
   </si>
   <si>
-    <t>登录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>C07</t>
   </si>
   <si>
@@ -498,19 +487,33 @@
     <t>C08</t>
   </si>
   <si>
-    <t>登陆</t>
-    <rPh sb="0" eb="2">
-      <t>deng l</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>C09</t>
   </si>
   <si>
     <t>登出用户</t>
     <rPh sb="0" eb="1">
       <t>deng chu yong hu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录</t>
+    <rPh sb="0" eb="7">
+      <t>yong h</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录</t>
+    <rPh sb="0" eb="1">
+      <t>yong hu deng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录账户</t>
+    <rPh sb="0" eb="7">
+      <t>deng l</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -930,7 +933,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="11"/>
@@ -976,10 +979,10 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -1087,7 +1090,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -1168,7 +1171,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -1273,7 +1276,7 @@
         <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>39</v>
@@ -1297,13 +1300,13 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>10</v>
@@ -1324,10 +1327,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>37</v>
@@ -1351,10 +1354,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>38</v>
@@ -1378,13 +1381,13 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>10</v>
@@ -1405,16 +1408,16 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="2"/>
@@ -1432,16 +1435,16 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="2"/>
@@ -1459,16 +1462,16 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="2"/>
@@ -1486,16 +1489,16 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="2"/>
@@ -1513,16 +1516,16 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="2"/>
@@ -1540,16 +1543,16 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="2"/>
@@ -1567,16 +1570,16 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="2"/>
@@ -1594,16 +1597,16 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="2"/>
@@ -1621,16 +1624,16 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="2"/>
@@ -1648,16 +1651,16 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="2"/>
@@ -1675,16 +1678,16 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="2"/>
@@ -1702,16 +1705,16 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="2"/>
@@ -1729,16 +1732,16 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="2"/>
@@ -1756,16 +1759,16 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" ref="E31" si="5">F31*H31</f>
@@ -1783,16 +1786,16 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -1809,16 +1812,16 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E33" s="1">
         <v>2</v>

--- a/doc/Process/3-软件迭代阶段/ProductBacklogs.xlsx
+++ b/doc/Process/3-软件迭代阶段/ProductBacklogs.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Desktop/Tinder/doc/Process/3-软件迭代阶段/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D5BD5282-48DB-8F46-B505-1C4D3F6C351D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCABF0BE-85B7-C140-9027-B4846A9ACB94}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9880" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v0.1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="94">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -395,13 +396,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>语音输入转文字</t>
-    <rPh sb="0" eb="2">
-      <t>yu yi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>解禁账号</t>
     <rPh sb="0" eb="4">
       <t>jie kajie kafeng ji</t>
@@ -487,9 +481,6 @@
     <t>C08</t>
   </si>
   <si>
-    <t>C09</t>
-  </si>
-  <si>
     <t>登出用户</t>
     <rPh sb="0" eb="1">
       <t>deng chu yong hu</t>
@@ -498,7 +489,7 @@
   </si>
   <si>
     <t>用户登录</t>
-    <rPh sb="0" eb="7">
+    <rPh sb="0" eb="4">
       <t>yong h</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -512,7 +503,7 @@
   </si>
   <si>
     <t>登录账户</t>
-    <rPh sb="0" eb="7">
+    <rPh sb="0" eb="4">
       <t>deng l</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -930,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="11"/>
@@ -979,10 +970,10 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -1069,7 +1060,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:E30" si="2">F5*H5</f>
+        <f t="shared" ref="E5:E29" si="2">F5*H5</f>
         <v>2</v>
       </c>
       <c r="F5" s="1">
@@ -1090,7 +1081,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -1171,7 +1162,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -1381,7 +1372,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>46</v>
@@ -1408,7 +1399,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>43</v>
@@ -1435,7 +1426,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>43</v>
@@ -1462,7 +1453,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>51</v>
@@ -1489,7 +1480,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>45</v>
@@ -1516,7 +1507,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>42</v>
@@ -1543,7 +1534,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>42</v>
@@ -1570,7 +1561,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>58</v>
@@ -1597,7 +1588,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>60</v>
@@ -1624,7 +1615,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>60</v>
@@ -1651,7 +1642,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>44</v>
@@ -1678,7 +1669,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>44</v>
@@ -1705,7 +1696,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>66</v>
@@ -1732,26 +1723,26 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E30" si="5">F30*H30</f>
         <v>2</v>
       </c>
       <c r="F30" s="1">
         <v>2</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H30" s="1">
         <v>1</v>
@@ -1759,23 +1750,22 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" ref="E31" si="5">F31*H31</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>8</v>
@@ -1786,92 +1776,66 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" s="1">
         <v>1</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="4" t="s">
+      <c r="A33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2">
+        <f>COUNTIF(A2:A32,"&lt;&gt;0")</f>
+        <v>31</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="2">
+        <f>SUM(E2:E32)</f>
         <v>65</v>
       </c>
-      <c r="E33" s="1">
-        <v>2</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="2">
-        <f>COUNTIF(A2:A33,"&lt;&gt;0")</f>
-        <v>32</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="2">
-        <f>SUM(E2:E33)</f>
-        <v>67</v>
-      </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="45" spans="1:8" s="2" customFormat="1">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="44" spans="1:8" s="2" customFormat="1">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D33" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D32" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1级,2级,3级,4级,5级"</formula1>
     </dataValidation>
   </dataValidations>
